--- a/Mvc_Schedule/App_Data/Excel/template_1.xlsx
+++ b/Mvc_Schedule/App_Data/Excel/template_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrey\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrey\Desktop\sch-dev_RC\Mvc_Schedule\App_Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -280,9 +280,6 @@
     </r>
   </si>
   <si>
-    <t>Ч Е Т Н А Я        Н Е Д Е Л Я</t>
-  </si>
-  <si>
     <r>
       <t>8</t>
     </r>
@@ -361,6 +358,9 @@
   </si>
   <si>
     <t>10.03 по 15.03</t>
+  </si>
+  <si>
+    <t>неделя</t>
   </si>
 </sst>
 </file>
@@ -972,6 +972,99 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -984,12 +1077,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1009,93 +1096,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1567,7 +1567,7 @@
   <dimension ref="A1:W79"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="25" zoomScaleNormal="75" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13:R13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1596,49 +1596,49 @@
       <c r="B1" s="1"/>
       <c r="C1" s="27"/>
       <c r="D1" s="31"/>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
       <c r="M1" s="31"/>
     </row>
     <row r="2" spans="1:19" ht="60.75" x14ac:dyDescent="0.8">
       <c r="B2" s="4"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
       <c r="M2" s="31"/>
     </row>
     <row r="3" spans="1:19" ht="60.75" x14ac:dyDescent="0.8">
       <c r="B3" s="4"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
     </row>
     <row r="4" spans="1:19" ht="60.75" x14ac:dyDescent="0.8">
       <c r="B4" s="4"/>
@@ -1646,13 +1646,13 @@
       <c r="D4" s="32"/>
       <c r="E4" s="32"/>
       <c r="F4" s="32"/>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
       <c r="L4" s="32"/>
       <c r="M4" s="32"/>
     </row>
@@ -1676,13 +1676,13 @@
       <c r="C8" s="48"/>
       <c r="D8" s="51"/>
       <c r="E8" s="26"/>
-      <c r="F8" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
+      <c r="F8" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
@@ -1695,17 +1695,17 @@
       <c r="C9" s="51"/>
       <c r="D9" s="51"/>
       <c r="E9" s="26"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="91"/>
     </row>
     <row r="10" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A10" s="5"/>
@@ -1713,15 +1713,15 @@
       <c r="C10" s="36"/>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
       <c r="M10" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
@@ -1747,69 +1747,69 @@
     <row r="12" spans="1:19" s="11" customFormat="1" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="18"/>
       <c r="B12" s="19"/>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="67" t="s">
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="55" t="s">
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="63" t="s">
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="65"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="94"/>
     </row>
     <row r="13" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
-      <c r="B13" s="88"/>
-      <c r="C13" s="75" t="s">
+      <c r="B13" s="59"/>
+      <c r="C13" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="76"/>
-      <c r="E13" s="58" t="s">
+      <c r="D13" s="68"/>
+      <c r="E13" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="59"/>
-      <c r="G13" s="72" t="s">
+      <c r="F13" s="70"/>
+      <c r="G13" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="72"/>
-      <c r="I13" s="73" t="s">
+      <c r="H13" s="71"/>
+      <c r="I13" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="74"/>
-      <c r="K13" s="58" t="s">
+      <c r="J13" s="73"/>
+      <c r="K13" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="L13" s="59"/>
-      <c r="M13" s="58" t="s">
+      <c r="L13" s="70"/>
+      <c r="M13" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="N13" s="59"/>
-      <c r="O13" s="58" t="s">
+      <c r="N13" s="70"/>
+      <c r="O13" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="58" t="s">
+      <c r="P13" s="70"/>
+      <c r="Q13" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="R13" s="59"/>
+      <c r="R13" s="70"/>
     </row>
     <row r="14" spans="1:19" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="74" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="28" t="s">
@@ -1834,706 +1834,706 @@
       <c r="S14" s="1"/>
     </row>
     <row r="15" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="71"/>
+      <c r="A15" s="75"/>
       <c r="B15" s="52"/>
       <c r="C15" s="40"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="77"/>
-      <c r="O15" s="77"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="77"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
       <c r="R15" s="41"/>
       <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:19" ht="70.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="71"/>
+      <c r="A16" s="75"/>
       <c r="B16" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="40"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="77"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
       <c r="R16" s="41"/>
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="71"/>
+      <c r="A17" s="75"/>
       <c r="B17" s="53"/>
       <c r="C17" s="40"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="77"/>
-      <c r="Q17" s="77"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
       <c r="R17" s="41"/>
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:19" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="71"/>
+      <c r="A18" s="75"/>
       <c r="B18" s="29" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="40"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="77"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
       <c r="R18" s="41"/>
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="71"/>
+      <c r="A19" s="75"/>
       <c r="B19" s="29"/>
       <c r="C19" s="40"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="77"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
       <c r="R19" s="41"/>
       <c r="S19" s="1"/>
     </row>
     <row r="20" spans="1:19" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="71"/>
-      <c r="B20" s="89" t="s">
+      <c r="A20" s="75"/>
+      <c r="B20" s="60" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="40"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="77"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
       <c r="R20" s="41"/>
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="71"/>
+      <c r="A21" s="75"/>
       <c r="B21" s="39"/>
       <c r="C21" s="40"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="77"/>
-      <c r="P21" s="77"/>
-      <c r="Q21" s="77"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
       <c r="R21" s="41"/>
       <c r="S21" s="1"/>
     </row>
     <row r="22" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="71"/>
+      <c r="A22" s="75"/>
       <c r="B22" s="45"/>
       <c r="C22" s="40"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="77"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
       <c r="R22" s="41"/>
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="71"/>
+      <c r="A23" s="75"/>
       <c r="B23" s="46"/>
       <c r="C23" s="40"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="77"/>
-      <c r="O23" s="77"/>
-      <c r="P23" s="77"/>
-      <c r="Q23" s="77"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
       <c r="R23" s="41"/>
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="79"/>
-      <c r="B24" s="90"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="61"/>
       <c r="C24" s="40"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="77"/>
-      <c r="N24" s="77"/>
-      <c r="O24" s="77"/>
-      <c r="P24" s="77"/>
-      <c r="Q24" s="77"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
       <c r="R24" s="41"/>
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="71" t="s">
+      <c r="A25" s="75" t="s">
         <v>1</v>
       </c>
       <c r="B25" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="40"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="77"/>
-      <c r="N25" s="77"/>
-      <c r="O25" s="77"/>
-      <c r="P25" s="77"/>
-      <c r="Q25" s="77"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
       <c r="R25" s="41"/>
       <c r="S25" s="12"/>
     </row>
     <row r="26" spans="1:19" s="11" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="71"/>
+      <c r="A26" s="75"/>
       <c r="B26" s="52"/>
       <c r="C26" s="40"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="77"/>
-      <c r="N26" s="77"/>
-      <c r="O26" s="77"/>
-      <c r="P26" s="77"/>
-      <c r="Q26" s="77"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
       <c r="R26" s="41"/>
       <c r="S26" s="12"/>
     </row>
     <row r="27" spans="1:19" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="71"/>
+      <c r="A27" s="75"/>
       <c r="B27" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="40"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="77"/>
-      <c r="N27" s="77"/>
-      <c r="O27" s="77"/>
-      <c r="P27" s="77"/>
-      <c r="Q27" s="77"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
       <c r="R27" s="41"/>
       <c r="S27" s="12"/>
     </row>
     <row r="28" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="71"/>
-      <c r="B28" s="91"/>
+      <c r="A28" s="75"/>
+      <c r="B28" s="62"/>
       <c r="C28" s="40"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="77"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="77"/>
-      <c r="P28" s="77"/>
-      <c r="Q28" s="77"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
       <c r="R28" s="41"/>
       <c r="S28" s="1"/>
     </row>
     <row r="29" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="71"/>
+      <c r="A29" s="75"/>
       <c r="B29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="C29" s="40"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="77"/>
-      <c r="N29" s="77"/>
-      <c r="O29" s="77"/>
-      <c r="P29" s="77"/>
-      <c r="Q29" s="77"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
       <c r="R29" s="41"/>
       <c r="S29" s="1"/>
     </row>
     <row r="30" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="71"/>
+      <c r="A30" s="75"/>
       <c r="B30" s="52"/>
       <c r="C30" s="40"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="77"/>
-      <c r="N30" s="77"/>
-      <c r="O30" s="77"/>
-      <c r="P30" s="77"/>
-      <c r="Q30" s="77"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="54"/>
       <c r="R30" s="41"/>
       <c r="S30" s="1"/>
     </row>
     <row r="31" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="71"/>
+      <c r="A31" s="75"/>
       <c r="B31" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="40"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="77"/>
-      <c r="N31" s="77"/>
-      <c r="O31" s="77"/>
-      <c r="P31" s="77"/>
-      <c r="Q31" s="77"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
       <c r="R31" s="41"/>
       <c r="S31" s="1"/>
     </row>
     <row r="32" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="71"/>
+      <c r="A32" s="75"/>
       <c r="B32" s="30"/>
       <c r="C32" s="40"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="77"/>
-      <c r="J32" s="77"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="77"/>
-      <c r="N32" s="77"/>
-      <c r="O32" s="77"/>
-      <c r="P32" s="77"/>
-      <c r="Q32" s="77"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
       <c r="R32" s="41"/>
       <c r="S32" s="1"/>
     </row>
     <row r="33" spans="1:23" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="80"/>
-      <c r="B33" s="90"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="61"/>
       <c r="C33" s="40"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="77"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="77"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="77"/>
-      <c r="N33" s="77"/>
-      <c r="O33" s="77"/>
-      <c r="P33" s="77"/>
-      <c r="Q33" s="77"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
       <c r="R33" s="41"/>
       <c r="S33" s="1"/>
     </row>
     <row r="34" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="71" t="s">
+      <c r="A34" s="75" t="s">
         <v>2</v>
       </c>
       <c r="B34" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="40"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="77"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="77"/>
-      <c r="M34" s="77"/>
-      <c r="N34" s="77"/>
-      <c r="O34" s="77"/>
-      <c r="P34" s="77"/>
-      <c r="Q34" s="77"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
       <c r="R34" s="41"/>
       <c r="S34" s="1"/>
     </row>
     <row r="35" spans="1:23" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="71"/>
+      <c r="A35" s="75"/>
       <c r="B35" s="52"/>
       <c r="C35" s="40"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="77"/>
-      <c r="M35" s="77"/>
-      <c r="N35" s="77"/>
-      <c r="O35" s="77"/>
-      <c r="P35" s="77"/>
-      <c r="Q35" s="77"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="54"/>
       <c r="R35" s="41"/>
       <c r="S35" s="1"/>
     </row>
     <row r="36" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="71"/>
+      <c r="A36" s="75"/>
       <c r="B36" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="40"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77"/>
-      <c r="I36" s="77"/>
-      <c r="J36" s="77"/>
-      <c r="K36" s="77"/>
-      <c r="L36" s="77"/>
-      <c r="M36" s="77"/>
-      <c r="N36" s="77"/>
-      <c r="O36" s="77"/>
-      <c r="P36" s="77"/>
-      <c r="Q36" s="77"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="54"/>
       <c r="R36" s="41"/>
       <c r="S36" s="1"/>
     </row>
     <row r="37" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="71"/>
-      <c r="B37" s="91"/>
+      <c r="A37" s="75"/>
+      <c r="B37" s="62"/>
       <c r="C37" s="40"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="77"/>
-      <c r="K37" s="77"/>
-      <c r="L37" s="77"/>
-      <c r="M37" s="77"/>
-      <c r="N37" s="77"/>
-      <c r="O37" s="77"/>
-      <c r="P37" s="77"/>
-      <c r="Q37" s="77"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="54"/>
       <c r="R37" s="41"/>
       <c r="S37" s="1"/>
     </row>
     <row r="38" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="71"/>
+      <c r="A38" s="75"/>
       <c r="B38" s="29" t="s">
         <v>14</v>
       </c>
       <c r="C38" s="40"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77"/>
-      <c r="I38" s="77"/>
-      <c r="J38" s="77"/>
-      <c r="K38" s="77"/>
-      <c r="L38" s="77"/>
-      <c r="M38" s="77"/>
-      <c r="N38" s="77"/>
-      <c r="O38" s="77"/>
-      <c r="P38" s="77"/>
-      <c r="Q38" s="77"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="54"/>
       <c r="R38" s="41"/>
       <c r="S38" s="1"/>
     </row>
     <row r="39" spans="1:23" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="71"/>
+      <c r="A39" s="75"/>
       <c r="B39" s="29"/>
       <c r="C39" s="40"/>
-      <c r="D39" s="77"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="77"/>
-      <c r="J39" s="77"/>
-      <c r="K39" s="77"/>
-      <c r="L39" s="77"/>
-      <c r="M39" s="77"/>
-      <c r="N39" s="77"/>
-      <c r="O39" s="77"/>
-      <c r="P39" s="77"/>
-      <c r="Q39" s="77"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="54"/>
       <c r="R39" s="41"/>
       <c r="S39" s="1"/>
     </row>
     <row r="40" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="71"/>
+      <c r="A40" s="75"/>
       <c r="B40" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C40" s="40"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="77"/>
-      <c r="J40" s="77"/>
-      <c r="K40" s="77"/>
-      <c r="L40" s="77"/>
-      <c r="M40" s="77"/>
-      <c r="N40" s="77"/>
-      <c r="O40" s="77"/>
-      <c r="P40" s="77"/>
-      <c r="Q40" s="77"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="54"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="54"/>
       <c r="R40" s="41"/>
       <c r="S40" s="1"/>
     </row>
     <row r="41" spans="1:23" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="71"/>
+      <c r="A41" s="75"/>
       <c r="B41" s="52"/>
       <c r="C41" s="40"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="77"/>
-      <c r="J41" s="77"/>
-      <c r="K41" s="77"/>
-      <c r="L41" s="77"/>
-      <c r="M41" s="77"/>
-      <c r="N41" s="77"/>
-      <c r="O41" s="77"/>
-      <c r="P41" s="77"/>
-      <c r="Q41" s="77"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="54"/>
+      <c r="Q41" s="54"/>
       <c r="R41" s="41"/>
       <c r="S41" s="1"/>
     </row>
     <row r="42" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="71"/>
+      <c r="A42" s="75"/>
       <c r="B42" s="29" t="s">
         <v>27</v>
       </c>
       <c r="C42" s="40"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="77"/>
-      <c r="J42" s="77"/>
-      <c r="K42" s="77"/>
-      <c r="L42" s="77"/>
-      <c r="M42" s="77"/>
-      <c r="N42" s="77"/>
-      <c r="O42" s="77"/>
-      <c r="P42" s="77"/>
-      <c r="Q42" s="77"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="54"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="54"/>
       <c r="R42" s="41"/>
       <c r="S42" s="1"/>
     </row>
     <row r="43" spans="1:23" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="71"/>
+      <c r="A43" s="75"/>
       <c r="B43" s="30"/>
       <c r="C43" s="40"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="77"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="77"/>
-      <c r="L43" s="77"/>
-      <c r="M43" s="77"/>
-      <c r="N43" s="77"/>
-      <c r="O43" s="77"/>
-      <c r="P43" s="77"/>
-      <c r="Q43" s="77"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="54"/>
+      <c r="N43" s="54"/>
+      <c r="O43" s="54"/>
+      <c r="P43" s="54"/>
+      <c r="Q43" s="54"/>
       <c r="R43" s="41"/>
       <c r="S43" s="1"/>
     </row>
     <row r="44" spans="1:23" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="81"/>
+      <c r="A44" s="57"/>
       <c r="B44" s="44"/>
       <c r="C44" s="40"/>
-      <c r="D44" s="77"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="77"/>
-      <c r="I44" s="77"/>
-      <c r="J44" s="77"/>
-      <c r="K44" s="77"/>
-      <c r="L44" s="77"/>
-      <c r="M44" s="77"/>
-      <c r="N44" s="77"/>
-      <c r="O44" s="77"/>
-      <c r="P44" s="77"/>
-      <c r="Q44" s="77"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="54"/>
+      <c r="L44" s="54"/>
+      <c r="M44" s="54"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="54"/>
+      <c r="P44" s="54"/>
+      <c r="Q44" s="54"/>
       <c r="R44" s="41"/>
       <c r="S44" s="1"/>
     </row>
     <row r="45" spans="1:23" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="82" t="s">
+      <c r="A45" s="76" t="s">
         <v>23</v>
       </c>
       <c r="B45" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C45" s="40"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="77"/>
-      <c r="F45" s="77"/>
-      <c r="G45" s="77"/>
-      <c r="H45" s="77"/>
-      <c r="I45" s="77"/>
-      <c r="J45" s="77"/>
-      <c r="K45" s="77"/>
-      <c r="L45" s="77"/>
-      <c r="M45" s="77"/>
-      <c r="N45" s="77"/>
-      <c r="O45" s="77"/>
-      <c r="P45" s="77"/>
-      <c r="Q45" s="77"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="54"/>
+      <c r="L45" s="54"/>
+      <c r="M45" s="54"/>
+      <c r="N45" s="54"/>
+      <c r="O45" s="54"/>
+      <c r="P45" s="54"/>
+      <c r="Q45" s="54"/>
       <c r="R45" s="41"/>
       <c r="S45" s="12"/>
     </row>
     <row r="46" spans="1:23" s="11" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="82"/>
+      <c r="A46" s="76"/>
       <c r="B46" s="52"/>
       <c r="C46" s="40"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="77"/>
-      <c r="H46" s="77"/>
-      <c r="I46" s="77"/>
-      <c r="J46" s="77"/>
-      <c r="K46" s="77"/>
-      <c r="L46" s="77"/>
-      <c r="M46" s="77"/>
-      <c r="N46" s="77"/>
-      <c r="O46" s="77"/>
-      <c r="P46" s="77"/>
-      <c r="Q46" s="77"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="54"/>
+      <c r="L46" s="54"/>
+      <c r="M46" s="54"/>
+      <c r="N46" s="54"/>
+      <c r="O46" s="54"/>
+      <c r="P46" s="54"/>
+      <c r="Q46" s="54"/>
       <c r="R46" s="41"/>
       <c r="S46" s="1"/>
       <c r="T46"/>
@@ -2542,157 +2542,157 @@
       <c r="W46"/>
     </row>
     <row r="47" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="82"/>
+      <c r="A47" s="76"/>
       <c r="B47" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C47" s="40"/>
-      <c r="D47" s="77"/>
-      <c r="E47" s="77"/>
-      <c r="F47" s="77"/>
-      <c r="G47" s="77"/>
-      <c r="H47" s="77"/>
-      <c r="I47" s="77"/>
-      <c r="J47" s="77"/>
-      <c r="K47" s="77"/>
-      <c r="L47" s="77"/>
-      <c r="M47" s="77"/>
-      <c r="N47" s="77"/>
-      <c r="O47" s="77"/>
-      <c r="P47" s="77"/>
-      <c r="Q47" s="77"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="54"/>
+      <c r="N47" s="54"/>
+      <c r="O47" s="54"/>
+      <c r="P47" s="54"/>
+      <c r="Q47" s="54"/>
       <c r="R47" s="41"/>
       <c r="S47" s="1"/>
     </row>
     <row r="48" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="82"/>
-      <c r="B48" s="91"/>
+      <c r="A48" s="76"/>
+      <c r="B48" s="62"/>
       <c r="C48" s="40"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="77"/>
-      <c r="F48" s="77"/>
-      <c r="G48" s="77"/>
-      <c r="H48" s="77"/>
-      <c r="I48" s="77"/>
-      <c r="J48" s="77"/>
-      <c r="K48" s="77"/>
-      <c r="L48" s="77"/>
-      <c r="M48" s="77"/>
-      <c r="N48" s="77"/>
-      <c r="O48" s="77"/>
-      <c r="P48" s="77"/>
-      <c r="Q48" s="77"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="54"/>
+      <c r="M48" s="54"/>
+      <c r="N48" s="54"/>
+      <c r="O48" s="54"/>
+      <c r="P48" s="54"/>
+      <c r="Q48" s="54"/>
       <c r="R48" s="41"/>
       <c r="S48" s="1"/>
     </row>
     <row r="49" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="82"/>
+      <c r="A49" s="76"/>
       <c r="B49" s="29" t="s">
         <v>14</v>
       </c>
       <c r="C49" s="40"/>
-      <c r="D49" s="77"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="77"/>
-      <c r="G49" s="77"/>
-      <c r="H49" s="77"/>
-      <c r="I49" s="77"/>
-      <c r="J49" s="77"/>
-      <c r="K49" s="77"/>
-      <c r="L49" s="77"/>
-      <c r="M49" s="77"/>
-      <c r="N49" s="77"/>
-      <c r="O49" s="77"/>
-      <c r="P49" s="77"/>
-      <c r="Q49" s="77"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="54"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="54"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="54"/>
+      <c r="P49" s="54"/>
+      <c r="Q49" s="54"/>
       <c r="R49" s="41"/>
       <c r="S49" s="1"/>
     </row>
     <row r="50" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="82"/>
+      <c r="A50" s="76"/>
       <c r="B50" s="29"/>
       <c r="C50" s="40"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="77"/>
-      <c r="F50" s="77"/>
-      <c r="G50" s="77"/>
-      <c r="H50" s="77"/>
-      <c r="I50" s="77"/>
-      <c r="J50" s="77"/>
-      <c r="K50" s="77"/>
-      <c r="L50" s="77"/>
-      <c r="M50" s="77"/>
-      <c r="N50" s="77"/>
-      <c r="O50" s="77"/>
-      <c r="P50" s="77"/>
-      <c r="Q50" s="77"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="54"/>
+      <c r="J50" s="54"/>
+      <c r="K50" s="54"/>
+      <c r="L50" s="54"/>
+      <c r="M50" s="54"/>
+      <c r="N50" s="54"/>
+      <c r="O50" s="54"/>
+      <c r="P50" s="54"/>
+      <c r="Q50" s="54"/>
       <c r="R50" s="41"/>
       <c r="S50" s="1"/>
     </row>
     <row r="51" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="82"/>
+      <c r="A51" s="76"/>
       <c r="B51" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C51" s="40"/>
-      <c r="D51" s="77"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="77"/>
-      <c r="G51" s="77"/>
-      <c r="H51" s="77"/>
-      <c r="I51" s="77"/>
-      <c r="J51" s="77"/>
-      <c r="K51" s="77"/>
-      <c r="L51" s="77"/>
-      <c r="M51" s="77"/>
-      <c r="N51" s="77"/>
-      <c r="O51" s="77"/>
-      <c r="P51" s="77"/>
-      <c r="Q51" s="77"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="54"/>
+      <c r="K51" s="54"/>
+      <c r="L51" s="54"/>
+      <c r="M51" s="54"/>
+      <c r="N51" s="54"/>
+      <c r="O51" s="54"/>
+      <c r="P51" s="54"/>
+      <c r="Q51" s="54"/>
       <c r="R51" s="41"/>
       <c r="S51" s="1"/>
     </row>
     <row r="52" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="83"/>
+      <c r="A52" s="77"/>
       <c r="B52" s="39"/>
       <c r="C52" s="40"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="77"/>
-      <c r="G52" s="77"/>
-      <c r="H52" s="77"/>
-      <c r="I52" s="77"/>
-      <c r="J52" s="77"/>
-      <c r="K52" s="77"/>
-      <c r="L52" s="77"/>
-      <c r="M52" s="77"/>
-      <c r="N52" s="77"/>
-      <c r="O52" s="77"/>
-      <c r="P52" s="77"/>
-      <c r="Q52" s="77"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="54"/>
+      <c r="K52" s="54"/>
+      <c r="L52" s="54"/>
+      <c r="M52" s="54"/>
+      <c r="N52" s="54"/>
+      <c r="O52" s="54"/>
+      <c r="P52" s="54"/>
+      <c r="Q52" s="54"/>
       <c r="R52" s="41"/>
       <c r="S52" s="1"/>
     </row>
     <row r="53" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="33"/>
-      <c r="B53" s="92" t="s">
-        <v>31</v>
+      <c r="B53" s="63" t="s">
+        <v>30</v>
       </c>
       <c r="C53" s="40"/>
-      <c r="D53" s="77"/>
-      <c r="E53" s="77"/>
-      <c r="F53" s="77"/>
-      <c r="G53" s="77"/>
-      <c r="H53" s="77"/>
-      <c r="I53" s="77"/>
-      <c r="J53" s="77"/>
-      <c r="K53" s="77"/>
-      <c r="L53" s="77"/>
-      <c r="M53" s="77"/>
-      <c r="N53" s="77"/>
-      <c r="O53" s="77"/>
-      <c r="P53" s="77"/>
-      <c r="Q53" s="77"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="54"/>
+      <c r="K53" s="54"/>
+      <c r="L53" s="54"/>
+      <c r="M53" s="54"/>
+      <c r="N53" s="54"/>
+      <c r="O53" s="54"/>
+      <c r="P53" s="54"/>
+      <c r="Q53" s="54"/>
       <c r="R53" s="41"/>
       <c r="S53" s="1"/>
     </row>
@@ -2700,41 +2700,41 @@
       <c r="A54" s="33"/>
       <c r="B54" s="30"/>
       <c r="C54" s="40"/>
-      <c r="D54" s="77"/>
-      <c r="E54" s="77"/>
-      <c r="F54" s="77"/>
-      <c r="G54" s="77"/>
-      <c r="H54" s="77"/>
-      <c r="I54" s="77"/>
-      <c r="J54" s="77"/>
-      <c r="K54" s="77"/>
-      <c r="L54" s="77"/>
-      <c r="M54" s="77"/>
-      <c r="N54" s="77"/>
-      <c r="O54" s="77"/>
-      <c r="P54" s="77"/>
-      <c r="Q54" s="77"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="54"/>
+      <c r="K54" s="54"/>
+      <c r="L54" s="54"/>
+      <c r="M54" s="54"/>
+      <c r="N54" s="54"/>
+      <c r="O54" s="54"/>
+      <c r="P54" s="54"/>
+      <c r="Q54" s="54"/>
       <c r="R54" s="41"/>
       <c r="S54" s="1"/>
     </row>
     <row r="55" spans="1:19" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="79"/>
-      <c r="B55" s="93"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="64"/>
       <c r="C55" s="40"/>
-      <c r="D55" s="77"/>
-      <c r="E55" s="77"/>
-      <c r="F55" s="77"/>
-      <c r="G55" s="77"/>
-      <c r="H55" s="77"/>
-      <c r="I55" s="77"/>
-      <c r="J55" s="77"/>
-      <c r="K55" s="77"/>
-      <c r="L55" s="77"/>
-      <c r="M55" s="77"/>
-      <c r="N55" s="77"/>
-      <c r="O55" s="77"/>
-      <c r="P55" s="77"/>
-      <c r="Q55" s="77"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="54"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="54"/>
+      <c r="J55" s="54"/>
+      <c r="K55" s="54"/>
+      <c r="L55" s="54"/>
+      <c r="M55" s="54"/>
+      <c r="N55" s="54"/>
+      <c r="O55" s="54"/>
+      <c r="P55" s="54"/>
+      <c r="Q55" s="54"/>
       <c r="R55" s="41"/>
       <c r="S55" s="1"/>
     </row>
@@ -2742,20 +2742,20 @@
       <c r="A56" s="34"/>
       <c r="B56" s="42"/>
       <c r="C56" s="40"/>
-      <c r="D56" s="77"/>
-      <c r="E56" s="77"/>
-      <c r="F56" s="77"/>
-      <c r="G56" s="77"/>
-      <c r="H56" s="77"/>
-      <c r="I56" s="77"/>
-      <c r="J56" s="77"/>
-      <c r="K56" s="77"/>
-      <c r="L56" s="77"/>
-      <c r="M56" s="77"/>
-      <c r="N56" s="77"/>
-      <c r="O56" s="77"/>
-      <c r="P56" s="77"/>
-      <c r="Q56" s="77"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="54"/>
+      <c r="G56" s="54"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="54"/>
+      <c r="J56" s="54"/>
+      <c r="K56" s="54"/>
+      <c r="L56" s="54"/>
+      <c r="M56" s="54"/>
+      <c r="N56" s="54"/>
+      <c r="O56" s="54"/>
+      <c r="P56" s="54"/>
+      <c r="Q56" s="54"/>
       <c r="R56" s="41"/>
       <c r="S56" s="1"/>
     </row>
@@ -2763,381 +2763,381 @@
       <c r="A57" s="34"/>
       <c r="B57" s="43"/>
       <c r="C57" s="40"/>
-      <c r="D57" s="77"/>
-      <c r="E57" s="77"/>
-      <c r="F57" s="77"/>
-      <c r="G57" s="77"/>
-      <c r="H57" s="77"/>
-      <c r="I57" s="77"/>
-      <c r="J57" s="77"/>
-      <c r="K57" s="77"/>
-      <c r="L57" s="77"/>
-      <c r="M57" s="77"/>
-      <c r="N57" s="77"/>
-      <c r="O57" s="77"/>
-      <c r="P57" s="77"/>
-      <c r="Q57" s="77"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="54"/>
+      <c r="H57" s="54"/>
+      <c r="I57" s="54"/>
+      <c r="J57" s="54"/>
+      <c r="K57" s="54"/>
+      <c r="L57" s="54"/>
+      <c r="M57" s="54"/>
+      <c r="N57" s="54"/>
+      <c r="O57" s="54"/>
+      <c r="P57" s="54"/>
+      <c r="Q57" s="54"/>
       <c r="R57" s="41"/>
       <c r="S57" s="1"/>
     </row>
     <row r="58" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="71" t="s">
+      <c r="A58" s="75" t="s">
         <v>3</v>
       </c>
       <c r="B58" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C58" s="40"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="77"/>
-      <c r="F58" s="77"/>
-      <c r="G58" s="77"/>
-      <c r="H58" s="77"/>
-      <c r="I58" s="77"/>
-      <c r="J58" s="77"/>
-      <c r="K58" s="77"/>
-      <c r="L58" s="77"/>
-      <c r="M58" s="77"/>
-      <c r="N58" s="77"/>
-      <c r="O58" s="77"/>
-      <c r="P58" s="77"/>
-      <c r="Q58" s="77"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="54"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="54"/>
+      <c r="J58" s="54"/>
+      <c r="K58" s="54"/>
+      <c r="L58" s="54"/>
+      <c r="M58" s="54"/>
+      <c r="N58" s="54"/>
+      <c r="O58" s="54"/>
+      <c r="P58" s="54"/>
+      <c r="Q58" s="54"/>
       <c r="R58" s="41"/>
       <c r="S58" s="1"/>
     </row>
     <row r="59" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="71"/>
+      <c r="A59" s="75"/>
       <c r="B59" s="52"/>
       <c r="C59" s="40"/>
-      <c r="D59" s="77"/>
-      <c r="E59" s="77"/>
-      <c r="F59" s="77"/>
-      <c r="G59" s="77"/>
-      <c r="H59" s="77"/>
-      <c r="I59" s="77"/>
-      <c r="J59" s="77"/>
-      <c r="K59" s="77"/>
-      <c r="L59" s="77"/>
-      <c r="M59" s="77"/>
-      <c r="N59" s="77"/>
-      <c r="O59" s="77"/>
-      <c r="P59" s="77"/>
-      <c r="Q59" s="77"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="54"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="54"/>
+      <c r="H59" s="54"/>
+      <c r="I59" s="54"/>
+      <c r="J59" s="54"/>
+      <c r="K59" s="54"/>
+      <c r="L59" s="54"/>
+      <c r="M59" s="54"/>
+      <c r="N59" s="54"/>
+      <c r="O59" s="54"/>
+      <c r="P59" s="54"/>
+      <c r="Q59" s="54"/>
       <c r="R59" s="41"/>
       <c r="S59" s="1"/>
     </row>
     <row r="60" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="71"/>
+      <c r="A60" s="75"/>
       <c r="B60" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C60" s="40"/>
-      <c r="D60" s="77"/>
-      <c r="E60" s="77"/>
-      <c r="F60" s="77"/>
-      <c r="G60" s="77"/>
-      <c r="H60" s="77"/>
-      <c r="I60" s="77"/>
-      <c r="J60" s="77"/>
-      <c r="K60" s="77"/>
-      <c r="L60" s="77"/>
-      <c r="M60" s="77"/>
-      <c r="N60" s="77"/>
-      <c r="O60" s="77"/>
-      <c r="P60" s="77"/>
-      <c r="Q60" s="77"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="54"/>
+      <c r="G60" s="54"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="54"/>
+      <c r="J60" s="54"/>
+      <c r="K60" s="54"/>
+      <c r="L60" s="54"/>
+      <c r="M60" s="54"/>
+      <c r="N60" s="54"/>
+      <c r="O60" s="54"/>
+      <c r="P60" s="54"/>
+      <c r="Q60" s="54"/>
       <c r="R60" s="41"/>
       <c r="S60" s="1"/>
     </row>
     <row r="61" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="71"/>
-      <c r="B61" s="91"/>
+      <c r="A61" s="75"/>
+      <c r="B61" s="62"/>
       <c r="C61" s="40"/>
-      <c r="D61" s="77"/>
-      <c r="E61" s="77"/>
-      <c r="F61" s="77"/>
-      <c r="G61" s="77"/>
-      <c r="H61" s="77"/>
-      <c r="I61" s="77"/>
-      <c r="J61" s="77"/>
-      <c r="K61" s="77"/>
-      <c r="L61" s="77"/>
-      <c r="M61" s="77"/>
-      <c r="N61" s="77"/>
-      <c r="O61" s="77"/>
-      <c r="P61" s="77"/>
-      <c r="Q61" s="77"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="54"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="54"/>
+      <c r="K61" s="54"/>
+      <c r="L61" s="54"/>
+      <c r="M61" s="54"/>
+      <c r="N61" s="54"/>
+      <c r="O61" s="54"/>
+      <c r="P61" s="54"/>
+      <c r="Q61" s="54"/>
       <c r="R61" s="41"/>
       <c r="S61" s="1"/>
     </row>
     <row r="62" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="71"/>
+      <c r="A62" s="75"/>
       <c r="B62" s="29" t="s">
         <v>14</v>
       </c>
       <c r="C62" s="40"/>
-      <c r="D62" s="77"/>
-      <c r="E62" s="77"/>
-      <c r="F62" s="77"/>
-      <c r="G62" s="77"/>
-      <c r="H62" s="77"/>
-      <c r="I62" s="77"/>
-      <c r="J62" s="77"/>
-      <c r="K62" s="77"/>
-      <c r="L62" s="77"/>
-      <c r="M62" s="77"/>
-      <c r="N62" s="77"/>
-      <c r="O62" s="77"/>
-      <c r="P62" s="77"/>
-      <c r="Q62" s="77"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="54"/>
+      <c r="K62" s="54"/>
+      <c r="L62" s="54"/>
+      <c r="M62" s="54"/>
+      <c r="N62" s="54"/>
+      <c r="O62" s="54"/>
+      <c r="P62" s="54"/>
+      <c r="Q62" s="54"/>
       <c r="R62" s="41"/>
       <c r="S62" s="1"/>
     </row>
     <row r="63" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="71"/>
+      <c r="A63" s="75"/>
       <c r="B63" s="29"/>
       <c r="C63" s="40"/>
-      <c r="D63" s="77"/>
-      <c r="E63" s="77"/>
-      <c r="F63" s="77"/>
-      <c r="G63" s="77"/>
-      <c r="H63" s="77"/>
-      <c r="I63" s="77"/>
-      <c r="J63" s="77"/>
-      <c r="K63" s="77"/>
-      <c r="L63" s="77"/>
-      <c r="M63" s="77"/>
-      <c r="N63" s="77"/>
-      <c r="O63" s="77"/>
-      <c r="P63" s="77"/>
-      <c r="Q63" s="77"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="54"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="54"/>
+      <c r="K63" s="54"/>
+      <c r="L63" s="54"/>
+      <c r="M63" s="54"/>
+      <c r="N63" s="54"/>
+      <c r="O63" s="54"/>
+      <c r="P63" s="54"/>
+      <c r="Q63" s="54"/>
       <c r="R63" s="41"/>
       <c r="S63" s="1"/>
     </row>
     <row r="64" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="71"/>
+      <c r="A64" s="75"/>
       <c r="B64" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C64" s="40"/>
-      <c r="D64" s="77"/>
-      <c r="E64" s="77"/>
-      <c r="F64" s="77"/>
-      <c r="G64" s="77"/>
-      <c r="H64" s="77"/>
-      <c r="I64" s="77"/>
-      <c r="J64" s="77"/>
-      <c r="K64" s="77"/>
-      <c r="L64" s="77"/>
-      <c r="M64" s="77"/>
-      <c r="N64" s="77"/>
-      <c r="O64" s="77"/>
-      <c r="P64" s="77"/>
-      <c r="Q64" s="77"/>
+      <c r="D64" s="54"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="54"/>
+      <c r="G64" s="54"/>
+      <c r="H64" s="54"/>
+      <c r="I64" s="54"/>
+      <c r="J64" s="54"/>
+      <c r="K64" s="54"/>
+      <c r="L64" s="54"/>
+      <c r="M64" s="54"/>
+      <c r="N64" s="54"/>
+      <c r="O64" s="54"/>
+      <c r="P64" s="54"/>
+      <c r="Q64" s="54"/>
       <c r="R64" s="41"/>
       <c r="S64" s="1"/>
     </row>
     <row r="65" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="71"/>
+      <c r="A65" s="75"/>
       <c r="B65" s="30"/>
       <c r="C65" s="40"/>
-      <c r="D65" s="77"/>
-      <c r="E65" s="77"/>
-      <c r="F65" s="77"/>
-      <c r="G65" s="77"/>
-      <c r="H65" s="77"/>
-      <c r="I65" s="77"/>
-      <c r="J65" s="77"/>
-      <c r="K65" s="77"/>
-      <c r="L65" s="77"/>
-      <c r="M65" s="77"/>
-      <c r="N65" s="77"/>
-      <c r="O65" s="77"/>
-      <c r="P65" s="77"/>
-      <c r="Q65" s="77"/>
+      <c r="D65" s="54"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="54"/>
+      <c r="H65" s="54"/>
+      <c r="I65" s="54"/>
+      <c r="J65" s="54"/>
+      <c r="K65" s="54"/>
+      <c r="L65" s="54"/>
+      <c r="M65" s="54"/>
+      <c r="N65" s="54"/>
+      <c r="O65" s="54"/>
+      <c r="P65" s="54"/>
+      <c r="Q65" s="54"/>
       <c r="R65" s="41"/>
       <c r="S65" s="1"/>
     </row>
     <row r="66" spans="1:19" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="84"/>
-      <c r="B66" s="94"/>
+      <c r="A66" s="58"/>
+      <c r="B66" s="65"/>
       <c r="C66" s="40"/>
-      <c r="D66" s="77"/>
-      <c r="E66" s="77"/>
-      <c r="F66" s="77"/>
-      <c r="G66" s="77"/>
-      <c r="H66" s="77"/>
-      <c r="I66" s="77"/>
-      <c r="J66" s="77"/>
-      <c r="K66" s="77"/>
-      <c r="L66" s="77"/>
-      <c r="M66" s="77"/>
-      <c r="N66" s="77"/>
-      <c r="O66" s="77"/>
-      <c r="P66" s="77"/>
-      <c r="Q66" s="77"/>
+      <c r="D66" s="54"/>
+      <c r="E66" s="54"/>
+      <c r="F66" s="54"/>
+      <c r="G66" s="54"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="54"/>
+      <c r="J66" s="54"/>
+      <c r="K66" s="54"/>
+      <c r="L66" s="54"/>
+      <c r="M66" s="54"/>
+      <c r="N66" s="54"/>
+      <c r="O66" s="54"/>
+      <c r="P66" s="54"/>
+      <c r="Q66" s="54"/>
       <c r="R66" s="41"/>
       <c r="S66" s="1"/>
     </row>
     <row r="67" spans="1:19" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="85" t="s">
+      <c r="A67" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B67" s="95" t="s">
-        <v>29</v>
+      <c r="B67" s="66" t="s">
+        <v>28</v>
       </c>
       <c r="C67" s="40"/>
-      <c r="D67" s="77"/>
-      <c r="E67" s="77"/>
-      <c r="F67" s="77"/>
-      <c r="G67" s="77"/>
-      <c r="H67" s="77"/>
-      <c r="I67" s="77"/>
-      <c r="J67" s="77"/>
-      <c r="K67" s="77"/>
-      <c r="L67" s="77"/>
-      <c r="M67" s="77"/>
-      <c r="N67" s="77"/>
-      <c r="O67" s="77"/>
-      <c r="P67" s="77"/>
-      <c r="Q67" s="77"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="54"/>
+      <c r="G67" s="54"/>
+      <c r="H67" s="54"/>
+      <c r="I67" s="54"/>
+      <c r="J67" s="54"/>
+      <c r="K67" s="54"/>
+      <c r="L67" s="54"/>
+      <c r="M67" s="54"/>
+      <c r="N67" s="54"/>
+      <c r="O67" s="54"/>
+      <c r="P67" s="54"/>
+      <c r="Q67" s="54"/>
       <c r="R67" s="41"/>
       <c r="S67" s="1"/>
     </row>
     <row r="68" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="86"/>
+      <c r="A68" s="81"/>
       <c r="B68" s="52"/>
       <c r="C68" s="40"/>
-      <c r="D68" s="77"/>
-      <c r="E68" s="77"/>
-      <c r="F68" s="77"/>
-      <c r="G68" s="77"/>
-      <c r="H68" s="77"/>
-      <c r="I68" s="77"/>
-      <c r="J68" s="77"/>
-      <c r="K68" s="77"/>
-      <c r="L68" s="77"/>
-      <c r="M68" s="77"/>
-      <c r="N68" s="77"/>
-      <c r="O68" s="77"/>
-      <c r="P68" s="77"/>
-      <c r="Q68" s="77"/>
+      <c r="D68" s="54"/>
+      <c r="E68" s="54"/>
+      <c r="F68" s="54"/>
+      <c r="G68" s="54"/>
+      <c r="H68" s="54"/>
+      <c r="I68" s="54"/>
+      <c r="J68" s="54"/>
+      <c r="K68" s="54"/>
+      <c r="L68" s="54"/>
+      <c r="M68" s="54"/>
+      <c r="N68" s="54"/>
+      <c r="O68" s="54"/>
+      <c r="P68" s="54"/>
+      <c r="Q68" s="54"/>
       <c r="R68" s="41"/>
       <c r="S68" s="1"/>
     </row>
     <row r="69" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="86"/>
+      <c r="A69" s="81"/>
       <c r="B69" s="28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C69" s="40"/>
-      <c r="D69" s="77"/>
-      <c r="E69" s="77"/>
-      <c r="F69" s="77"/>
-      <c r="G69" s="77"/>
-      <c r="H69" s="77"/>
-      <c r="I69" s="77"/>
-      <c r="J69" s="77"/>
-      <c r="K69" s="77"/>
-      <c r="L69" s="77"/>
-      <c r="M69" s="77"/>
-      <c r="N69" s="77"/>
-      <c r="O69" s="77"/>
-      <c r="P69" s="77"/>
-      <c r="Q69" s="77"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="54"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="54"/>
+      <c r="H69" s="54"/>
+      <c r="I69" s="54"/>
+      <c r="J69" s="54"/>
+      <c r="K69" s="54"/>
+      <c r="L69" s="54"/>
+      <c r="M69" s="54"/>
+      <c r="N69" s="54"/>
+      <c r="O69" s="54"/>
+      <c r="P69" s="54"/>
+      <c r="Q69" s="54"/>
       <c r="R69" s="41"/>
       <c r="S69" s="1"/>
     </row>
     <row r="70" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="86"/>
-      <c r="B70" s="91"/>
+      <c r="A70" s="81"/>
+      <c r="B70" s="62"/>
       <c r="C70" s="40"/>
-      <c r="D70" s="77"/>
-      <c r="E70" s="77"/>
-      <c r="F70" s="77"/>
-      <c r="G70" s="77"/>
-      <c r="H70" s="77"/>
-      <c r="I70" s="77"/>
-      <c r="J70" s="77"/>
-      <c r="K70" s="77"/>
-      <c r="L70" s="77"/>
-      <c r="M70" s="77"/>
-      <c r="N70" s="77"/>
-      <c r="O70" s="77"/>
-      <c r="P70" s="77"/>
-      <c r="Q70" s="77"/>
+      <c r="D70" s="54"/>
+      <c r="E70" s="54"/>
+      <c r="F70" s="54"/>
+      <c r="G70" s="54"/>
+      <c r="H70" s="54"/>
+      <c r="I70" s="54"/>
+      <c r="J70" s="54"/>
+      <c r="K70" s="54"/>
+      <c r="L70" s="54"/>
+      <c r="M70" s="54"/>
+      <c r="N70" s="54"/>
+      <c r="O70" s="54"/>
+      <c r="P70" s="54"/>
+      <c r="Q70" s="54"/>
       <c r="R70" s="41"/>
       <c r="S70" s="1"/>
     </row>
     <row r="71" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="86"/>
+      <c r="A71" s="81"/>
       <c r="B71" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C71" s="40"/>
-      <c r="D71" s="77"/>
-      <c r="E71" s="77"/>
-      <c r="F71" s="77"/>
-      <c r="G71" s="77"/>
-      <c r="H71" s="77"/>
-      <c r="I71" s="77"/>
-      <c r="J71" s="77"/>
-      <c r="K71" s="77"/>
-      <c r="L71" s="77"/>
-      <c r="M71" s="77"/>
-      <c r="N71" s="77"/>
-      <c r="O71" s="77"/>
-      <c r="P71" s="77"/>
-      <c r="Q71" s="77"/>
+      <c r="D71" s="54"/>
+      <c r="E71" s="54"/>
+      <c r="F71" s="54"/>
+      <c r="G71" s="54"/>
+      <c r="H71" s="54"/>
+      <c r="I71" s="54"/>
+      <c r="J71" s="54"/>
+      <c r="K71" s="54"/>
+      <c r="L71" s="54"/>
+      <c r="M71" s="54"/>
+      <c r="N71" s="54"/>
+      <c r="O71" s="54"/>
+      <c r="P71" s="54"/>
+      <c r="Q71" s="54"/>
       <c r="R71" s="41"/>
       <c r="S71" s="1"/>
     </row>
     <row r="72" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="86"/>
+      <c r="A72" s="81"/>
       <c r="B72" s="29"/>
       <c r="C72" s="40"/>
-      <c r="D72" s="77"/>
-      <c r="E72" s="77"/>
-      <c r="F72" s="77"/>
-      <c r="G72" s="77"/>
-      <c r="H72" s="77"/>
-      <c r="I72" s="77"/>
-      <c r="J72" s="77"/>
-      <c r="K72" s="77"/>
-      <c r="L72" s="77"/>
-      <c r="M72" s="77"/>
-      <c r="N72" s="77"/>
-      <c r="O72" s="77"/>
-      <c r="P72" s="77"/>
-      <c r="Q72" s="77"/>
+      <c r="D72" s="54"/>
+      <c r="E72" s="54"/>
+      <c r="F72" s="54"/>
+      <c r="G72" s="54"/>
+      <c r="H72" s="54"/>
+      <c r="I72" s="54"/>
+      <c r="J72" s="54"/>
+      <c r="K72" s="54"/>
+      <c r="L72" s="54"/>
+      <c r="M72" s="54"/>
+      <c r="N72" s="54"/>
+      <c r="O72" s="54"/>
+      <c r="P72" s="54"/>
+      <c r="Q72" s="54"/>
       <c r="R72" s="41"/>
       <c r="S72" s="1"/>
     </row>
     <row r="73" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="86"/>
+      <c r="A73" s="81"/>
       <c r="B73" s="29" t="s">
         <v>13</v>
       </c>
       <c r="C73" s="40"/>
-      <c r="D73" s="77"/>
-      <c r="E73" s="77"/>
-      <c r="F73" s="77"/>
-      <c r="G73" s="77"/>
-      <c r="H73" s="77"/>
-      <c r="I73" s="77"/>
-      <c r="J73" s="77"/>
-      <c r="K73" s="77"/>
-      <c r="L73" s="77"/>
-      <c r="M73" s="77"/>
-      <c r="N73" s="77"/>
-      <c r="O73" s="77"/>
-      <c r="P73" s="77"/>
-      <c r="Q73" s="77"/>
+      <c r="D73" s="54"/>
+      <c r="E73" s="54"/>
+      <c r="F73" s="54"/>
+      <c r="G73" s="54"/>
+      <c r="H73" s="54"/>
+      <c r="I73" s="54"/>
+      <c r="J73" s="54"/>
+      <c r="K73" s="54"/>
+      <c r="L73" s="54"/>
+      <c r="M73" s="54"/>
+      <c r="N73" s="54"/>
+      <c r="O73" s="54"/>
+      <c r="P73" s="54"/>
+      <c r="Q73" s="54"/>
       <c r="R73" s="41"/>
       <c r="S73" s="1"/>
     </row>
     <row r="74" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="87"/>
+      <c r="A74" s="82"/>
       <c r="B74" s="30"/>
       <c r="C74" s="23"/>
       <c r="D74" s="37"/>
@@ -3239,18 +3239,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A14:A23"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="A34:A43"/>
-    <mergeCell ref="A45:A52"/>
-    <mergeCell ref="E1:L1"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="D3:M3"/>
-    <mergeCell ref="G4:K4"/>
     <mergeCell ref="A67:A74"/>
     <mergeCell ref="A58:A65"/>
     <mergeCell ref="G12:J12"/>
@@ -3264,6 +3252,18 @@
     <mergeCell ref="O12:R12"/>
     <mergeCell ref="O13:P13"/>
     <mergeCell ref="C12:F12"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="A34:A43"/>
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="E1:L1"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="D3:M3"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A14:A23"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
